--- a/evpn_config_template.xlsx
+++ b/evpn_config_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,11 +16,16 @@
     <sheet name="Access" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="98">
   <si>
     <t>OSPF_Process_ID</t>
   </si>
@@ -37,7 +42,7 @@
     <t>BGP_Password</t>
   </si>
   <si>
-    <t>C1sc0.123</t>
+    <t>9cbd418459696af44965d2725b0e2936</t>
   </si>
   <si>
     <t>10.100.100.254</t>
@@ -142,102 +147,114 @@
     <t>10.10.10.4</t>
   </si>
   <si>
+    <t>#EVPN-LEAF3</t>
+  </si>
+  <si>
+    <t>10.255.139.39</t>
+  </si>
+  <si>
+    <t>10.100.100.5</t>
+  </si>
+  <si>
+    <t>10.10.10.5</t>
+  </si>
+  <si>
+    <t>10.255.139.40</t>
+  </si>
+  <si>
+    <t>10.100.100.253</t>
+  </si>
+  <si>
+    <t>#EVPN-LEAF4</t>
+  </si>
+  <si>
+    <t>10.100.100.6</t>
+  </si>
+  <si>
+    <t>10.10.10.6</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>IP_Address</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Ethernet1/1</t>
+  </si>
+  <si>
+    <t>10.100.101.2/30</t>
+  </si>
+  <si>
+    <t>LEAF1-SPINE1</t>
+  </si>
+  <si>
+    <t>Ethernet1/2</t>
+  </si>
+  <si>
+    <t>10.100.101.18/30</t>
+  </si>
+  <si>
+    <t>LEAF1-SPINE2</t>
+  </si>
+  <si>
+    <t>10.100.101.6/30</t>
+  </si>
+  <si>
+    <t>10.100.101.22/30</t>
+  </si>
+  <si>
+    <t>10.100.101.10/30</t>
+  </si>
+  <si>
+    <t>10.100.101.26/30</t>
+  </si>
+  <si>
+    <t>10.100.101.14/30</t>
+  </si>
+  <si>
+    <t>10.100.101.30/30</t>
+  </si>
+  <si>
+    <t>10.100.101.1/30</t>
+  </si>
+  <si>
+    <t>10.100.101.5/30</t>
+  </si>
+  <si>
+    <t>#EVPN-SPINE1</t>
+  </si>
+  <si>
+    <t>Ethernet1/3</t>
+  </si>
+  <si>
+    <t>10.100.101.9/30</t>
+  </si>
+  <si>
     <t>EVPN-LEAF3</t>
   </si>
   <si>
-    <t>10.255.139.39</t>
-  </si>
-  <si>
-    <t>10.100.100.5</t>
-  </si>
-  <si>
-    <t>10.10.10.5</t>
-  </si>
-  <si>
-    <t>10.255.139.40</t>
-  </si>
-  <si>
-    <t>10.100.100.253</t>
+    <t>Ethernet1/4</t>
+  </si>
+  <si>
+    <t>10.100.101.13/30</t>
   </si>
   <si>
     <t>EVPN-LEAF4</t>
   </si>
   <si>
-    <t>10.100.100.6</t>
-  </si>
-  <si>
-    <t>10.10.10.6</t>
-  </si>
-  <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>IP_Address</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Ethernet1/1</t>
-  </si>
-  <si>
-    <t>10.100.101.2/30</t>
-  </si>
-  <si>
-    <t>LEAF1-SPINE1</t>
-  </si>
-  <si>
-    <t>Ethernet1/2</t>
-  </si>
-  <si>
-    <t>10.100.101.18/30</t>
-  </si>
-  <si>
-    <t>LEAF1-SPINE2</t>
-  </si>
-  <si>
-    <t>10.100.101.6/30</t>
-  </si>
-  <si>
-    <t>10.100.101.22/30</t>
-  </si>
-  <si>
-    <t>10.100.101.10/30</t>
-  </si>
-  <si>
-    <t>10.100.101.26/30</t>
-  </si>
-  <si>
-    <t>10.100.101.14/30</t>
-  </si>
-  <si>
-    <t>10.100.101.30/30</t>
-  </si>
-  <si>
-    <t>10.100.101.1/30</t>
-  </si>
-  <si>
-    <t>10.100.101.5/30</t>
-  </si>
-  <si>
-    <t>Ethernet1/3</t>
-  </si>
-  <si>
-    <t>10.100.101.9/30</t>
-  </si>
-  <si>
-    <t>Ethernet1/4</t>
-  </si>
-  <si>
-    <t>10.100.101.13/30</t>
-  </si>
-  <si>
     <t>10.100.101.17/30</t>
   </si>
   <si>
     <t>10.100.101.21/30</t>
   </si>
   <si>
+    <t>#EVPN-SPINE2</t>
+  </si>
+  <si>
     <t>10.100.101.25/30</t>
   </si>
   <si>
@@ -299,6 +316,9 @@
   </si>
   <si>
     <t>trunk</t>
+  </si>
+  <si>
+    <t>1105,1106</t>
   </si>
 </sst>
 </file>
@@ -428,16 +448,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="16"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,21 +513,21 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.837037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.5037037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.837037037037"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="1" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.5037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.5296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="17.8418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="1" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,17 +778,17 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.162962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,30 +947,30 @@
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,7 +981,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>27</v>
@@ -975,7 +995,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>37</v>
@@ -983,30 +1003,30 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1027,32 +1047,32 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.3333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.5296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.1348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1110</v>
@@ -1063,7 +1083,7 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1120</v>
@@ -1074,7 +1094,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1130</v>
@@ -1102,39 +1122,39 @@
   <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.837037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.1592592592593"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.6592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.1348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1105</v>
@@ -1143,15 +1163,15 @@
         <v>110500</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1106</v>
@@ -1160,10 +1180,10 @@
         <v>110600</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1188,19 +1208,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.837037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.5407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="17"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.5296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9395348837209"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.0279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,16 +1234,16 @@
         <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,19 +1251,22 @@
         <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,13 +1274,13 @@
         <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>32</v>
@@ -1265,19 +1288,22 @@
       <c r="F3" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="G3" s="0" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>32</v>
@@ -1285,25 +1311,31 @@
       <c r="F4" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="G4" s="0" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
